--- a/ADSDataDirect.Web/Templates/Tracking4.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11688"/>
   </bookViews>
   <sheets>
     <sheet name="TrackingReport" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Total Opens</t>
   </si>
@@ -75,18 +75,6 @@
     <t>User:</t>
   </si>
   <si>
-    <t>Come Check Us Out!</t>
-  </si>
-  <si>
-    <t>Pet Supplies Plus</t>
-  </si>
-  <si>
-    <t>ADS</t>
-  </si>
-  <si>
-    <t>Compaign Results</t>
-  </si>
-  <si>
     <t>Order Number:</t>
   </si>
   <si>
@@ -99,10 +87,43 @@
     <t>Data Files:</t>
   </si>
   <si>
-    <t>Printed On</t>
-  </si>
-  <si>
     <t>Creative</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>{{First Name}}, Model Year End Sale Going On Now</t>
+  </si>
+  <si>
+    <t>Jenkins Honda of Leesburg</t>
+  </si>
+  <si>
+    <t>EPM</t>
+  </si>
+  <si>
+    <t>3120A</t>
+  </si>
+  <si>
+    <t>5,825</t>
+  </si>
+  <si>
+    <t>1,083</t>
+  </si>
+  <si>
+    <t>http://www.jenkinshondaofleesburg.com/?utm_source=Conquest_Email&amp;utm_medium=email&amp;utm_content=home&amp;utm_campaign=Conquest_Emailc</t>
+  </si>
+  <si>
+    <t>http://www.jenkinshondaofleesburg.com/new-inventory/index.htm?utm_source=Conquest_Email&amp;utm_campaign=Conquest_Emailc&amp;utm_medium=email&amp;utm_content=background</t>
+  </si>
+  <si>
+    <t>Campaign Results</t>
+  </si>
+  <si>
+    <t>Report Date</t>
   </si>
 </sst>
 </file>
@@ -301,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -353,71 +374,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,13 +501,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>560069</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>3809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -491,7 +515,7 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2582499-01B3-4264-A993-E41A3C243862}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -548,13 +572,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>560069</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>3809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -562,7 +586,7 @@
         <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEC9363-4D1E-4C25-8AE0-EA8326035CE8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,13 +643,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>175259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -633,7 +657,7 @@
         <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB98D1C2-0B84-4BCB-AA6D-04F481956B4E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,13 +712,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -702,7 +726,7 @@
         <xdr:cNvPr id="10" name="Straight Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BD8CDA-0035-4364-8F4F-115168066B77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -745,13 +769,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -759,7 +783,7 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C91E5B4-61C0-4251-84B4-D4BF7E23FDFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -802,13 +826,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -816,7 +840,7 @@
         <xdr:cNvPr id="14" name="Straight Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D48F55-A001-485C-B7F8-4153A1CC0178}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1193,7 +1217,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:I2"/>
@@ -1209,47 +1233,46 @@
     <col min="9" max="9" width="4.33203125" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="1.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+    <row r="1" spans="1:12" ht="15" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" ht="1.2" customHeight="1">
+      <c r="L2" s="28">
+        <v>43041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="1.2" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1262,388 +1285,376 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="21.6" customHeight="1">
-      <c r="D4" s="10"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="38" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="1.2" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" ht="1.2" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="21.6" customHeight="1">
+      <c r="D6" s="10"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="35">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="H5" s="30"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="35"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.4" customHeight="1">
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="H7" s="47"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.4" customHeight="1">
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="43">
+        <f>H26/C23</f>
+        <v>0.11650000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.4" customHeight="1">
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="43"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="14">
-        <v>42951</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:13" ht="7.5" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="C9" s="15"/>
-      <c r="H9" s="6"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="15" t="s">
-        <v>14</v>
+      <c r="B10" s="30"/>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="42"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="37">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="29"/>
+      <c r="L10" s="45">
+        <f>H29/C23</f>
+        <v>2.1659999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6">
+      <c r="A11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30"/>
       <c r="C11" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="42"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="40"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="7.5" customHeight="1">
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="1:12" ht="7.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="C12" s="15"/>
       <c r="H12" s="6"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="15"/>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:12" ht="7.5" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="C15" s="15"/>
+      <c r="H15" s="6"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.6">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.6">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.6">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="23.4">
+      <c r="A22" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="C23" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.6">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.6">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.6">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-    </row>
-    <row r="19" spans="1:12" ht="23.4">
-      <c r="A19" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="C20" s="41">
-        <v>100000</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="44"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="44"/>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="44"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="44"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="C23" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="44" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="33"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="33"/>
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="33"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="33"/>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="C26" s="31">
+        <f>H26/C23</f>
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="41">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="44"/>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="C26" s="45">
-        <v>0.02</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="41">
-        <v>2000</v>
-      </c>
-      <c r="J26" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="43">
-        <v>0.2</v>
+      <c r="H26" s="34" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="44"/>
-      <c r="H27" s="41"/>
-      <c r="J27" s="47"/>
-      <c r="L27" s="43"/>
+      <c r="F27" s="33"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:12">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="C29" s="32"/>
+      <c r="C29" s="31">
+        <f>H29/C23</f>
+        <v>2.1659999999999999E-2</v>
+      </c>
       <c r="D29" s="32"/>
       <c r="E29" s="4"/>
+      <c r="F29" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="31">
+        <f>H29/H26</f>
+        <v>0.18592274678111587</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="4"/>
+      <c r="F30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="J30" s="40"/>
+      <c r="L30" s="31"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="44"/>
-      <c r="H32" s="31"/>
-      <c r="J32" s="48"/>
-      <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="44"/>
-      <c r="H33" s="31"/>
-      <c r="J33" s="48"/>
-      <c r="L33" s="45"/>
-    </row>
-    <row r="35" spans="1:12" ht="25.8">
-      <c r="A35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="18"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="33"/>
+      <c r="H35" s="36"/>
+      <c r="J35" s="35"/>
+      <c r="L35" s="31"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="A36" s="29" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="33"/>
+      <c r="H36" s="36"/>
+      <c r="J36" s="35"/>
+      <c r="L36" s="31"/>
+    </row>
+    <row r="38" spans="1:12" ht="25.8">
+      <c r="A38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="A39" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
-      <c r="A37" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1652,14 +1663,17 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
@@ -1668,7 +1682,7 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1">
@@ -1684,7 +1698,7 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1">
@@ -1700,7 +1714,7 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
@@ -1716,7 +1730,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1">
@@ -1732,7 +1746,7 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
@@ -1748,7 +1762,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1">
@@ -1764,7 +1778,7 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1">
@@ -1780,7 +1794,7 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
@@ -1796,7 +1810,7 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1">
@@ -1812,7 +1826,7 @@
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
       <c r="L49" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1">
@@ -1828,7 +1842,7 @@
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1">
@@ -1844,7 +1858,7 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1">
@@ -1859,7 +1873,9 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
-      <c r="L52" s="19"/>
+      <c r="L52" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1">
       <c r="A53" s="21"/>
@@ -1873,7 +1889,9 @@
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
-      <c r="L53" s="19"/>
+      <c r="L53" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1">
       <c r="A54" s="21"/>
@@ -1887,7 +1905,9 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
-      <c r="L54" s="19"/>
+      <c r="L54" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1">
       <c r="A55" s="21"/>
@@ -1971,9 +1991,7 @@
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
-      <c r="L60" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="L60" s="19"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1">
       <c r="A61" s="21"/>
@@ -1987,9 +2005,7 @@
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
-      <c r="L61" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="L61" s="19"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1">
       <c r="A62" s="21"/>
@@ -2003,9 +2019,7 @@
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
-      <c r="L62" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="L62" s="19"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1">
       <c r="A63" s="21"/>
@@ -2020,7 +2034,7 @@
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
       <c r="L63" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1">
@@ -2036,7 +2050,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
       <c r="L64" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1">
@@ -2052,653 +2066,673 @@
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
       <c r="L65" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="25.8" customHeight="1">
-      <c r="A66" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="25.95" customHeight="1">
+      <c r="A69" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="18" t="s">
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="19" t="s">
-        <v>19</v>
+      <c r="A70" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="27">
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="19" t="s">
-        <v>19</v>
+      <c r="A71" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="27">
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="27"/>
     </row>
     <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="27"/>
     </row>
     <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="27"/>
     </row>
     <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="27"/>
     </row>
     <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="27"/>
     </row>
     <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="27"/>
     </row>
     <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="27"/>
     </row>
     <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="27"/>
     </row>
     <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="27"/>
     </row>
     <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="27"/>
     </row>
     <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="27"/>
     </row>
     <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="27"/>
     </row>
     <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="27"/>
     </row>
     <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="27"/>
     </row>
     <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="27"/>
     </row>
     <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="27"/>
     </row>
     <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="19" t="s">
-        <v>19</v>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="19" t="s">
-        <v>19</v>
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="19" t="s">
-        <v>19</v>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="19" t="s">
-        <v>19</v>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="19" t="s">
-        <v>19</v>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="19" t="s">
-        <v>19</v>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="19" t="s">
-        <v>19</v>
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="19" t="s">
-        <v>19</v>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="19" t="s">
-        <v>19</v>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="19" t="s">
-        <v>19</v>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="19" t="s">
-        <v>19</v>
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="19" t="s">
-        <v>19</v>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="19" t="s">
-        <v>19</v>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="19" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="A100:K100"/>
-    <mergeCell ref="A94:K94"/>
-    <mergeCell ref="A95:K95"/>
-    <mergeCell ref="A96:K96"/>
-    <mergeCell ref="A97:K97"/>
-    <mergeCell ref="A98:K98"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="A80:K80"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A82:K82"/>
+    <mergeCell ref="A83:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
     <mergeCell ref="A89:K89"/>
     <mergeCell ref="A90:K90"/>
     <mergeCell ref="A91:K91"/>
     <mergeCell ref="A92:K92"/>
     <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A80:K80"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A82:K82"/>
-    <mergeCell ref="A83:K83"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="A75:K75"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A94:K94"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A103:K103"/>
+    <mergeCell ref="A97:K97"/>
+    <mergeCell ref="A98:K98"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="A101:K101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ADSDataDirect.Web/Templates/Tracking4.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking4.xlsx
@@ -380,68 +380,68 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -586,7 +586,7 @@
         <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -657,7 +657,7 @@
         <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -726,7 +726,7 @@
         <xdr:cNvPr id="10" name="Straight Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,7 +783,7 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -840,7 +840,7 @@
         <xdr:cNvPr id="14" name="Straight Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1217,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1239,31 +1239,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="24" t="s">
         <v>29</v>
       </c>
@@ -1316,31 +1316,31 @@
     </row>
     <row r="6" spans="1:12" ht="21.6" customHeight="1">
       <c r="D6" s="10"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="H7" s="47"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="48"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" customHeight="1">
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="46" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="43">
+      <c r="L8" s="38">
         <f>H26/C23</f>
         <v>0.11650000000000001</v>
       </c>
@@ -1348,46 +1348,46 @@
     <row r="9" spans="1:12" ht="14.4" customHeight="1">
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="38"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="43"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="47" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="45">
+      <c r="L10" s="44">
         <f>H29/C23</f>
         <v>2.1659999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="47"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="45"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="7.5" customHeight="1">
       <c r="A12" s="11"/>
@@ -1396,28 +1396,28 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="44"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="44"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="7.5" customHeight="1">
       <c r="A15" s="11"/>
@@ -1426,10 +1426,10 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
@@ -1437,85 +1437,85 @@
       <c r="G16" s="13"/>
       <c r="H16" s="22"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="42"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="49"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="42"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="49"/>
+      <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:12" ht="15.6">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" ht="15.6">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="15.6">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="23.4">
       <c r="A22" s="9" t="s">
@@ -1523,113 +1523,113 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="33"/>
-      <c r="H23" s="36"/>
+      <c r="F23" s="42"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="33"/>
-      <c r="L23" s="36"/>
+      <c r="J23" s="42"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="33"/>
-      <c r="H24" s="36"/>
+      <c r="F24" s="42"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="33"/>
-      <c r="L24" s="36"/>
+      <c r="J24" s="42"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="C26" s="31">
+      <c r="C26" s="41">
         <f>H26/C23</f>
         <v>0.11650000000000001</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="33"/>
-      <c r="H27" s="34"/>
+      <c r="F27" s="42"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:12">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="C29" s="31">
+      <c r="C29" s="41">
         <f>H29/C23</f>
         <v>2.1659999999999999E-2</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="40" t="s">
+      <c r="J29" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="41">
         <f>H29/H26</f>
         <v>0.18592274678111587</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="J30" s="40"/>
-      <c r="L30" s="31"/>
+      <c r="F30" s="42"/>
+      <c r="H30" s="39"/>
+      <c r="J30" s="48"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:12">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="33"/>
-      <c r="H35" s="36"/>
-      <c r="J35" s="35"/>
-      <c r="L35" s="31"/>
+      <c r="F35" s="42"/>
+      <c r="H35" s="35"/>
+      <c r="J35" s="49"/>
+      <c r="L35" s="41"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="33"/>
-      <c r="H36" s="36"/>
-      <c r="J36" s="35"/>
-      <c r="L36" s="31"/>
+      <c r="F36" s="42"/>
+      <c r="H36" s="35"/>
+      <c r="J36" s="49"/>
+      <c r="L36" s="41"/>
     </row>
     <row r="38" spans="1:12" ht="25.8">
       <c r="A38" s="17" t="s">
@@ -1648,10 +1648,10 @@
       <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="26" t="s">
         <v>20</v>
       </c>
@@ -1667,10 +1667,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="30"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="26" t="s">
         <v>21</v>
       </c>
@@ -2136,523 +2136,677 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
       <c r="L70" s="27">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
       <c r="L71" s="27">
         <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
       <c r="L72" s="27"/>
     </row>
     <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
       <c r="L73" s="27"/>
     </row>
     <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
       <c r="L74" s="27"/>
     </row>
     <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
       <c r="L75" s="27"/>
     </row>
     <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
       <c r="L76" s="27"/>
     </row>
     <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
       <c r="L77" s="27"/>
     </row>
     <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
       <c r="L78" s="27"/>
     </row>
     <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
       <c r="L79" s="27"/>
     </row>
     <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
       <c r="L80" s="27"/>
     </row>
     <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
       <c r="L81" s="27"/>
     </row>
     <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
       <c r="L82" s="27"/>
     </row>
     <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
       <c r="L83" s="27"/>
     </row>
     <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
       <c r="L84" s="27"/>
     </row>
     <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
       <c r="L85" s="27"/>
     </row>
     <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
       <c r="L86" s="27"/>
     </row>
     <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
       <c r="L87" s="27"/>
     </row>
     <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
       <c r="L88" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
       <c r="L89" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
       <c r="L90" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
       <c r="L91" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
       <c r="L92" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
       <c r="L93" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
       <c r="L94" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
       <c r="L95" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
       <c r="L96" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
       <c r="L97" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
       <c r="L98" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
       <c r="L99" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
       <c r="L100" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
       <c r="L101" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30"/>
       <c r="L102" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
       <c r="L103" s="19" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="104" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="27"/>
+    </row>
+    <row r="105" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="27"/>
+    </row>
+    <row r="106" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="27"/>
+    </row>
+    <row r="107" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="27"/>
+    </row>
+    <row r="108" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="30"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="27"/>
+    </row>
+    <row r="109" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="86">
+    <mergeCell ref="A109:K109"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A106:K106"/>
+    <mergeCell ref="A107:K107"/>
+    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A103:K103"/>
+    <mergeCell ref="A97:K97"/>
+    <mergeCell ref="A98:K98"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A94:K94"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="A90:K90"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A82:K82"/>
+    <mergeCell ref="A83:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="A80:K80"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="D20:L20"/>
@@ -2669,70 +2823,6 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="A80:K80"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A75:K75"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A82:K82"/>
-    <mergeCell ref="A83:K83"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="A89:K89"/>
-    <mergeCell ref="A90:K90"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A94:K94"/>
-    <mergeCell ref="A95:K95"/>
-    <mergeCell ref="A96:K96"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="A103:K103"/>
-    <mergeCell ref="A97:K97"/>
-    <mergeCell ref="A98:K98"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="A100:K100"/>
-    <mergeCell ref="A101:K101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ADSDataDirect.Web/Templates/Tracking4.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking4.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Total Opens</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>http://www.jenkinshondaofleesburg.com/?utm_source=Conquest_Email&amp;utm_medium=email&amp;utm_content=home&amp;utm_campaign=Conquest_Emailc</t>
-  </si>
-  <si>
-    <t>http://www.jenkinshondaofleesburg.com/new-inventory/index.htm?utm_source=Conquest_Email&amp;utm_campaign=Conquest_Emailc&amp;utm_medium=email&amp;utm_content=background</t>
   </si>
   <si>
     <t>Campaign Results</t>
@@ -380,15 +377,60 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -397,51 +439,6 @@
     </xf>
     <xf numFmtId="10" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,7 +512,7 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -586,7 +583,7 @@
         <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -657,7 +654,7 @@
         <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -726,7 +723,7 @@
         <xdr:cNvPr id="10" name="Straight Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,7 +780,7 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -840,7 +837,7 @@
         <xdr:cNvPr id="14" name="Straight Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,8 +1216,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:K104"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1239,33 +1236,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="A1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="24"/>
       <c r="L2" s="28">
@@ -1316,31 +1313,31 @@
     </row>
     <row r="6" spans="1:12" ht="21.6" customHeight="1">
       <c r="D6" s="10"/>
-      <c r="H6" s="32"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="48" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="H7" s="32"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="45"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="33"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" customHeight="1">
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="38" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="38">
+      <c r="L8" s="43">
         <f>H26/C23</f>
         <v>0.11650000000000001</v>
       </c>
@@ -1348,46 +1345,46 @@
     <row r="9" spans="1:12" ht="14.4" customHeight="1">
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="46"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="38"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="32"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="39" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="44">
+      <c r="L10" s="45">
         <f>H29/C23</f>
         <v>2.1659999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="32"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="47"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="44"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12" ht="7.5" customHeight="1">
       <c r="A12" s="11"/>
@@ -1396,28 +1393,28 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="40"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="7.5" customHeight="1">
       <c r="A15" s="11"/>
@@ -1426,10 +1423,10 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
@@ -1437,85 +1434,85 @@
       <c r="G16" s="13"/>
       <c r="H16" s="22"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="37"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="34"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="37"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="34"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="1:12" ht="15.6">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" ht="15.6">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" ht="15.6">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="1:12" ht="23.4">
       <c r="A22" s="9" t="s">
@@ -1523,113 +1520,113 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="H23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="42"/>
-      <c r="L23" s="35"/>
+      <c r="J23" s="34"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="42"/>
-      <c r="H24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="42"/>
-      <c r="L24" s="35"/>
+      <c r="J24" s="34"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="C26" s="41">
+      <c r="C26" s="31">
         <f>H26/C23</f>
         <v>0.11650000000000001</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="42"/>
-      <c r="H27" s="39"/>
+      <c r="F27" s="34"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:12">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="C29" s="41">
+      <c r="C29" s="31">
         <f>H29/C23</f>
         <v>2.1659999999999999E-2</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="31">
         <f>H29/H26</f>
         <v>0.18592274678111587</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="42"/>
-      <c r="H30" s="39"/>
-      <c r="J30" s="48"/>
-      <c r="L30" s="41"/>
+      <c r="F30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="J30" s="40"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:12">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="C35" s="41"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="42"/>
-      <c r="H35" s="35"/>
-      <c r="J35" s="49"/>
-      <c r="L35" s="41"/>
+      <c r="F35" s="34"/>
+      <c r="H35" s="36"/>
+      <c r="J35" s="35"/>
+      <c r="L35" s="31"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="42"/>
-      <c r="H36" s="35"/>
-      <c r="J36" s="49"/>
-      <c r="L36" s="41"/>
+      <c r="F36" s="34"/>
+      <c r="H36" s="36"/>
+      <c r="J36" s="35"/>
+      <c r="L36" s="31"/>
     </row>
     <row r="38" spans="1:12" ht="25.8">
       <c r="A38" s="17" t="s">
@@ -1648,10 +1645,10 @@
       <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="31"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="26" t="s">
         <v>20</v>
       </c>
@@ -1667,10 +1664,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="26" t="s">
         <v>21</v>
       </c>
@@ -2136,661 +2133,619 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
       <c r="L70" s="27">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="27">
-        <v>183</v>
-      </c>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="27"/>
     </row>
     <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
       <c r="L72" s="27"/>
     </row>
     <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
       <c r="L73" s="27"/>
     </row>
     <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
       <c r="L74" s="27"/>
     </row>
     <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
       <c r="L75" s="27"/>
     </row>
     <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
       <c r="L76" s="27"/>
     </row>
     <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
       <c r="L77" s="27"/>
     </row>
     <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
       <c r="L78" s="27"/>
     </row>
     <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
       <c r="L79" s="27"/>
     </row>
     <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
       <c r="L80" s="27"/>
     </row>
     <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
       <c r="L81" s="27"/>
     </row>
     <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
       <c r="L82" s="27"/>
     </row>
     <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
       <c r="L83" s="27"/>
     </row>
     <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
       <c r="L84" s="27"/>
     </row>
     <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
       <c r="L85" s="27"/>
     </row>
     <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
       <c r="L86" s="27"/>
     </row>
     <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
       <c r="L87" s="27"/>
     </row>
     <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="30"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
       <c r="L88" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
       <c r="L89" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
       <c r="L90" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
       <c r="L91" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="30"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
       <c r="L92" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
       <c r="L93" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
       <c r="L94" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="30"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
       <c r="L95" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
       <c r="L96" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="30"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
       <c r="L97" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
       <c r="L98" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
       <c r="L99" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
       <c r="L100" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="30"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
       <c r="L101" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="30"/>
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
       <c r="L102" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="30"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="30"/>
-      <c r="K103" s="30"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
       <c r="L103" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="30"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
       <c r="L104" s="27"/>
     </row>
     <row r="105" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
       <c r="L105" s="27"/>
     </row>
     <row r="106" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="30"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
       <c r="L106" s="27"/>
     </row>
     <row r="107" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="30"/>
-      <c r="K107" s="30"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
       <c r="L107" s="27"/>
     </row>
     <row r="108" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="30"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
       <c r="L108" s="27"/>
     </row>
     <row r="109" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
       <c r="L109" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A109:K109"/>
-    <mergeCell ref="A104:K104"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A106:K106"/>
-    <mergeCell ref="A107:K107"/>
-    <mergeCell ref="A108:K108"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="A103:K103"/>
-    <mergeCell ref="A97:K97"/>
-    <mergeCell ref="A98:K98"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="A100:K100"/>
-    <mergeCell ref="A101:K101"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A94:K94"/>
-    <mergeCell ref="A95:K95"/>
-    <mergeCell ref="A96:K96"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="A89:K89"/>
-    <mergeCell ref="A90:K90"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A82:K82"/>
-    <mergeCell ref="A83:K83"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="A80:K80"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A75:K75"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L16:L17"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="C32:D33"/>
     <mergeCell ref="J16:J17"/>
@@ -2807,22 +2762,60 @@
     <mergeCell ref="C29:D30"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="A80:K80"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A82:K82"/>
+    <mergeCell ref="A83:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="A90:K90"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A94:K94"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A103:K103"/>
+    <mergeCell ref="A97:K97"/>
+    <mergeCell ref="A98:K98"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="A109:K109"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A106:K106"/>
+    <mergeCell ref="A107:K107"/>
+    <mergeCell ref="A108:K108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ADSDataDirect.Web/Templates/Tracking4.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ADSDataDirect\ADSDataDirect.Web\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11688"/>
   </bookViews>
@@ -23,7 +28,7 @@
     <definedName name="Day_MM">INDIRECT([1]Output!#REF!)</definedName>
     <definedName name="White_Label">INDIRECT([1]Output!$B$9)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -126,8 +131,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,68 +382,68 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +517,7 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +588,7 @@
         <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -654,7 +659,7 @@
         <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -723,7 +728,7 @@
         <xdr:cNvPr id="10" name="Straight Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,7 +785,7 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -837,7 +842,7 @@
         <xdr:cNvPr id="14" name="Straight Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -880,7 +885,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Orders"/>
@@ -1205,22 +1210,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" customWidth="1"/>
@@ -1235,32 +1240,32 @@
     <col min="14" max="14" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="24" t="s">
         <v>28</v>
       </c>
@@ -1269,7 +1274,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="1.2" customHeight="1">
+    <row r="3" spans="1:12" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1283,7 +1288,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="1.2" customHeight="1">
+    <row r="4" spans="1:12" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1297,7 +1302,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="1.2" customHeight="1">
+    <row r="5" spans="1:12" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1311,122 +1316,122 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="1:12" ht="21.6" customHeight="1">
+    <row r="6" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="D6" s="10"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="H7" s="47"/>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="32"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="48"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.4" customHeight="1">
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="46" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="43">
+      <c r="L8" s="38">
         <f>H26/C23</f>
         <v>0.11650000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.4" customHeight="1">
+    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="38"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="47" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="45">
+      <c r="L10" s="44">
         <f>H29/C23</f>
         <v>2.1659999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="47"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12" ht="7.5" customHeight="1">
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="C12" s="15"/>
       <c r="H12" s="6"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" spans="1:12" ht="7.5" customHeight="1">
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="C15" s="15"/>
       <c r="H15" s="6"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
@@ -1434,201 +1439,201 @@
       <c r="G16" s="13"/>
       <c r="H16" s="22"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="42"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="49"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="42"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="49"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.6">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.6">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.6">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-    </row>
-    <row r="22" spans="1:12" ht="23.4">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="34"/>
-      <c r="H23" s="36"/>
+      <c r="F23" s="42"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="34"/>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="J23" s="42"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="34"/>
-      <c r="H24" s="36"/>
+      <c r="F24" s="42"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="34"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="C26" s="31">
+      <c r="J24" s="42"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="41">
         <f>H26/C23</f>
         <v>0.11650000000000001</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="34"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="F27" s="42"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="C29" s="31">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="41">
         <f>H29/C23</f>
         <v>2.1659999999999999E-2</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="40" t="s">
+      <c r="J29" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="41">
         <f>H29/H26</f>
         <v>0.18592274678111587</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="34"/>
-      <c r="H30" s="33"/>
-      <c r="J30" s="40"/>
-      <c r="L30" s="31"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="F30" s="42"/>
+      <c r="H30" s="39"/>
+      <c r="J30" s="48"/>
+      <c r="L30" s="41"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="41"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="34"/>
-      <c r="H35" s="36"/>
-      <c r="J35" s="35"/>
-      <c r="L35" s="31"/>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="F35" s="42"/>
+      <c r="H35" s="35"/>
+      <c r="J35" s="49"/>
+      <c r="L35" s="41"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="34"/>
-      <c r="H36" s="36"/>
-      <c r="J36" s="35"/>
-      <c r="L36" s="31"/>
-    </row>
-    <row r="38" spans="1:12" ht="25.8">
+      <c r="F36" s="42"/>
+      <c r="H36" s="35"/>
+      <c r="J36" s="49"/>
+      <c r="L36" s="41"/>
+    </row>
+    <row r="38" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A38" s="17" t="s">
         <v>17</v>
       </c>
@@ -1644,11 +1649,11 @@
       <c r="K38" s="16"/>
       <c r="L38" s="18"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="26" t="s">
         <v>20</v>
       </c>
@@ -1663,11 +1668,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="30"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="26" t="s">
         <v>21</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -1698,7 +1703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -1714,7 +1719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -1730,7 +1735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -1746,7 +1751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -1762,7 +1767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -1778,7 +1783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -1794,7 +1799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -1810,7 +1815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -1826,7 +1831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -1842,7 +1847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -1858,7 +1863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -1874,7 +1879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -1890,7 +1895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -1906,7 +1911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -1920,7 +1925,7 @@
       <c r="K55" s="21"/>
       <c r="L55" s="19"/>
     </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -1934,7 +1939,7 @@
       <c r="K56" s="21"/>
       <c r="L56" s="19"/>
     </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -1948,7 +1953,7 @@
       <c r="K57" s="21"/>
       <c r="L57" s="19"/>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -1962,7 +1967,7 @@
       <c r="K58" s="21"/>
       <c r="L58" s="19"/>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -1976,7 +1981,7 @@
       <c r="K59" s="21"/>
       <c r="L59" s="19"/>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -1990,7 +1995,7 @@
       <c r="K60" s="21"/>
       <c r="L60" s="19"/>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -2004,7 +2009,7 @@
       <c r="K61" s="21"/>
       <c r="L61" s="19"/>
     </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -2018,7 +2023,7 @@
       <c r="K62" s="21"/>
       <c r="L62" s="19"/>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -2034,7 +2039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -2050,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -2066,7 +2071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -2082,7 +2087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1">
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -2098,7 +2103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1">
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -2110,626 +2115,710 @@
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
-      <c r="L68" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A69" s="17" t="s">
+      <c r="L68" s="19"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="18" t="s">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="29" t="s">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="27">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="27">
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="27"/>
-    </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
       <c r="L75" s="27"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
       <c r="L76" s="27"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
       <c r="L78" s="27"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
       <c r="L79" s="27"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
       <c r="L80" s="27"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
       <c r="L81" s="27"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
       <c r="L82" s="27"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
       <c r="L83" s="27"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
       <c r="L84" s="27"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
       <c r="L85" s="27"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
       <c r="L86" s="27"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
       <c r="L87" s="27"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="27"/>
+    </row>
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
       <c r="L89" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
       <c r="L90" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
       <c r="L91" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
       <c r="L92" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
+    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
       <c r="L93" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
+    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
       <c r="L94" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
+    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
       <c r="L95" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
+    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
       <c r="L96" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
+    <row r="97" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
       <c r="L97" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
+    <row r="98" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
       <c r="L98" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
+    <row r="99" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="30"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
       <c r="L99" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
+    <row r="100" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
       <c r="L100" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
+    <row r="101" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
       <c r="L101" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
+    <row r="102" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30"/>
       <c r="L102" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="27"/>
-    </row>
-    <row r="105" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
+    <row r="103" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="30"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
+    <row r="106" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="107" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
+    <row r="107" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
       <c r="L107" s="27"/>
     </row>
-    <row r="108" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
+    <row r="108" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="30"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
       <c r="L108" s="27"/>
     </row>
-    <row r="109" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
+    <row r="109" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
       <c r="L109" s="27"/>
+    </row>
+    <row r="110" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="30"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="A110:K110"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A106:K106"/>
+    <mergeCell ref="A107:K107"/>
+    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="A109:K109"/>
+    <mergeCell ref="A103:K103"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="A98:K98"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A94:K94"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A97:K97"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="A90:K90"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A83:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A82:K82"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A80:K80"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="D20:L20"/>
@@ -2746,76 +2835,6 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="A80:K80"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A75:K75"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A82:K82"/>
-    <mergeCell ref="A83:K83"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="A89:K89"/>
-    <mergeCell ref="A90:K90"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A94:K94"/>
-    <mergeCell ref="A95:K95"/>
-    <mergeCell ref="A96:K96"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="A103:K103"/>
-    <mergeCell ref="A97:K97"/>
-    <mergeCell ref="A98:K98"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="A100:K100"/>
-    <mergeCell ref="A101:K101"/>
-    <mergeCell ref="A109:K109"/>
-    <mergeCell ref="A104:K104"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A106:K106"/>
-    <mergeCell ref="A107:K107"/>
-    <mergeCell ref="A108:K108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
